--- a/산출물 정리표.xlsx
+++ b/산출물 정리표.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="산출물 목록표" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>단계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,21 @@
   <si>
     <t>프로토타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열1</t>
+  </si>
+  <si>
+    <t>열2</t>
+  </si>
+  <si>
+    <t>열3</t>
+  </si>
+  <si>
+    <t>열4</t>
+  </si>
+  <si>
+    <t>열5</t>
   </si>
 </sst>
 </file>
@@ -192,6 +207,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B3:F14" totalsRowShown="0">
+  <autoFilter ref="B3:F14"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="열1"/>
+    <tableColumn id="2" name="열2"/>
+    <tableColumn id="3" name="열3"/>
+    <tableColumn id="4" name="열4"/>
+    <tableColumn id="5" name="열5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F13"/>
+  <dimension ref="B3:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,55 +500,61 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -527,53 +562,67 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>